--- a/docs/models_list.xlsx
+++ b/docs/models_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\bvc.dearfad.com\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Repositories\bvc.dearfad.com\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D2C7A5-B756-49A7-8991-4B7EADA8D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78786E-CC91-4633-9796-A4CDF0C39F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2040" windowWidth="21030" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,26 @@
   </si>
   <si>
     <t>自定义人物功能调用支持不佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepSeek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepseek-chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepSeek-V2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001/0.002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +287,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -492,16 +533,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{47721C54-6F11-4DE3-998B-2254B6C333D1}" name="公司" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FDE4F6EE-AC53-47AA-818B-D393DDB35251}" name="模型" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4651B419-278C-4D9F-A6FD-3F091AA4B8E9}" name="价格" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{61677FB0-95B2-46EA-90D6-A265B277316C}" name="速度" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{2B8DEF97-DF77-48B4-91F2-8A9CF60340CB}" name="效果" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6666A209-B56E-4637-B435-0F381D219947}" name="敏感词" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{881B018E-63A0-4727-824A-5DD6DBD592D7}" name="功能调用" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{559594D8-8B5A-417E-AA41-E2D7389C7721}" name="备注" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{47721C54-6F11-4DE3-998B-2254B6C333D1}" name="公司" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{0758A2E2-2C89-4F87-A940-B1AA3DCF1F14}" name="系列" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FDE4F6EE-AC53-47AA-818B-D393DDB35251}" name="模型" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4651B419-278C-4D9F-A6FD-3F091AA4B8E9}" name="价格" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{61677FB0-95B2-46EA-90D6-A265B277316C}" name="速度" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{2B8DEF97-DF77-48B4-91F2-8A9CF60340CB}" name="效果" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6666A209-B56E-4637-B435-0F381D219947}" name="敏感词" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{881B018E-63A0-4727-824A-5DD6DBD592D7}" name="功能调用" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{559594D8-8B5A-417E-AA41-E2D7389C7721}" name="备注" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,359 +812,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="18.59765625" style="2"/>
-    <col min="8" max="8" width="39.33203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="18.59765625" style="2"/>
+    <col min="1" max="8" width="18.5546875" style="2"/>
+    <col min="9" max="9" width="39.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>0.05</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/models_list.xlsx
+++ b/docs/models_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Repositories\bvc.dearfad.com\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\bvc.dearfad.com\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78786E-CC91-4633-9796-A4CDF0C39F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7898E-7F2B-4080-986D-F0CACF49704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="120">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,271 @@
   </si>
   <si>
     <t>0.001/0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubao-pro-4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubao-pro-32k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubao-pro-128k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubao-lite-4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubao-lite-32k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubao-lite-128k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>0.0008/0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0003/0.0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0008/0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005/0.009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character-240828 不支持 Func-Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱/失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百川智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百川大模型</t>
+  </si>
+  <si>
+    <t>Baichuan4</t>
+  </si>
+  <si>
+    <t>百度千帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERNIE-Speed-128K</t>
+  </si>
+  <si>
+    <t>千帆大模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERNIE-Character-8K</t>
+  </si>
+  <si>
+    <t>0.004/0.008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERNIE-Functions-8K</t>
+  </si>
+  <si>
+    <t>ERNIE-4.0-8K</t>
+  </si>
+  <si>
+    <t>function格式问题，待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abab6.5s</t>
+  </si>
+  <si>
+    <t>abab6.5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abab6.5t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有/差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零一万物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi-large</t>
+  </si>
+  <si>
+    <t>yi-medium</t>
+  </si>
+  <si>
+    <t>yi-spark</t>
+  </si>
+  <si>
+    <t>0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonshot-v1-32k</t>
+  </si>
+  <si>
+    <t>moonshot-v1-8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonshot-v1-128k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moonshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有/一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混元大模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunyuan-turbo</t>
+  </si>
+  <si>
+    <t>hunyuan-pro</t>
+  </si>
+  <si>
+    <t>hunyuan-standard</t>
+  </si>
+  <si>
+    <t>hunyuan-role</t>
+  </si>
+  <si>
+    <t>hunyuan-functioncall</t>
+  </si>
+  <si>
+    <t>hunyuan-lite</t>
+  </si>
+  <si>
+    <t>0.015/0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03/0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0045/0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API不兼容OpenAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark Lite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星火大模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.021~0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08~0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤日日新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SenseNova</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,17 +798,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:I47" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{47721C54-6F11-4DE3-998B-2254B6C333D1}" name="公司" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{0758A2E2-2C89-4F87-A940-B1AA3DCF1F14}" name="系列" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{FDE4F6EE-AC53-47AA-818B-D393DDB35251}" name="模型" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4651B419-278C-4D9F-A6FD-3F091AA4B8E9}" name="价格" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{61677FB0-95B2-46EA-90D6-A265B277316C}" name="速度" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2B8DEF97-DF77-48B4-91F2-8A9CF60340CB}" name="效果" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6666A209-B56E-4637-B435-0F381D219947}" name="敏感词" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{881B018E-63A0-4727-824A-5DD6DBD592D7}" name="功能调用" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{559594D8-8B5A-417E-AA41-E2D7389C7721}" name="备注" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{0758A2E2-2C89-4F87-A940-B1AA3DCF1F14}" name="系列" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FDE4F6EE-AC53-47AA-818B-D393DDB35251}" name="模型" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4651B419-278C-4D9F-A6FD-3F091AA4B8E9}" name="价格" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{61677FB0-95B2-46EA-90D6-A265B277316C}" name="速度" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2B8DEF97-DF77-48B4-91F2-8A9CF60340CB}" name="效果" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6666A209-B56E-4637-B435-0F381D219947}" name="敏感词" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{881B018E-63A0-4727-824A-5DD6DBD592D7}" name="功能调用" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{559594D8-8B5A-417E-AA41-E2D7389C7721}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,20 +1077,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.53125" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="18.5546875" style="2"/>
+    <col min="1" max="2" width="18.53125" style="2"/>
+    <col min="3" max="3" width="23.73046875" style="2" customWidth="1"/>
+    <col min="4" max="8" width="18.53125" style="2"/>
     <col min="9" max="9" width="39.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.5546875" style="2"/>
+    <col min="10" max="16384" width="18.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -880,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
@@ -900,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -920,7 +1187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -940,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
@@ -960,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
@@ -983,7 +1250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1124,7 +1391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1147,7 +1414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1170,7 +1437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1194,6 +1461,683 @@
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/docs/models_list.xlsx
+++ b/docs/models_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\bvc.dearfad.com\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Repositories\bvc.dearfad.com\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7898E-7F2B-4080-986D-F0CACF49704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B3877F-949F-4B0D-AC2A-45226D8FED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="137">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,66 @@
   </si>
   <si>
     <t>SenseNova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SenseChat</t>
+  </si>
+  <si>
+    <t>SenseChat-128K</t>
+  </si>
+  <si>
+    <t>SenseChat-32K</t>
+  </si>
+  <si>
+    <t>SenseChat-5</t>
+  </si>
+  <si>
+    <t>SenseChat-5-Cantonese</t>
+  </si>
+  <si>
+    <t>SenseChat-Character</t>
+  </si>
+  <si>
+    <t>SenseChat-Character-Pro</t>
+  </si>
+  <si>
+    <t>SenseChat-Turbo</t>
+  </si>
+  <si>
+    <t>0.04/0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.012/0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.036/0.036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06/0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002/0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤语版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +858,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:I47" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:I54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{47721C54-6F11-4DE3-998B-2254B6C333D1}" name="公司" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{0758A2E2-2C89-4F87-A940-B1AA3DCF1F14}" name="系列" dataDxfId="7"/>
@@ -1077,22 +1137,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.53125" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.53125" style="2"/>
-    <col min="3" max="3" width="23.73046875" style="2" customWidth="1"/>
-    <col min="4" max="8" width="18.53125" style="2"/>
+    <col min="1" max="2" width="18.5546875" style="2"/>
+    <col min="3" max="3" width="27.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="18.5546875" style="2"/>
     <col min="9" max="9" width="39.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.53125" style="2"/>
+    <col min="10" max="16384" width="18.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1227,7 +1287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1273,7 +1333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1391,7 +1451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1414,7 +1474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1437,7 +1497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1463,7 +1523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1486,7 +1546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1506,7 +1566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1526,7 +1586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1549,7 +1609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1569,7 +1629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
@@ -1589,7 +1649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -1615,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1641,7 +1701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1661,7 +1721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
@@ -1684,7 +1744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>73</v>
       </c>
@@ -1704,7 +1764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1730,7 +1790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
@@ -1750,7 +1810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>77</v>
       </c>
@@ -1770,7 +1830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
@@ -1796,7 +1856,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>85</v>
       </c>
@@ -1816,7 +1876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>86</v>
       </c>
@@ -1836,7 +1896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -1862,7 +1922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>89</v>
       </c>
@@ -1882,7 +1942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
@@ -1902,7 +1962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
@@ -1931,7 +1991,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>100</v>
       </c>
@@ -1954,7 +2014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>101</v>
       </c>
@@ -1977,7 +2037,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>102</v>
       </c>
@@ -2000,7 +2060,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -2023,7 +2083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
@@ -2046,7 +2106,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -2072,7 +2132,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>111</v>
       </c>
@@ -2092,7 +2152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>112</v>
       </c>
@@ -2112,7 +2172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>113</v>
       </c>
@@ -2132,12 +2192,179 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/models_list.xlsx
+++ b/docs/models_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Repositories\bvc.dearfad.com\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\bvc.dearfad.com\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B3877F-949F-4B0D-AC2A-45226D8FED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2823A5E-0037-43E5-8510-62E732E55406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="141">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,22 @@
   </si>
   <si>
     <t>特定格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘古大模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放企业申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +874,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:I54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F48D6B-392F-4287-B4F3-E48C664AD101}" name="表1" displayName="表1" ref="A1:I55" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{47721C54-6F11-4DE3-998B-2254B6C333D1}" name="公司" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{0758A2E2-2C89-4F87-A940-B1AA3DCF1F14}" name="系列" dataDxfId="7"/>
@@ -1137,22 +1153,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.53125" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" style="2"/>
-    <col min="3" max="3" width="27.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="18.5546875" style="2"/>
+    <col min="1" max="2" width="18.53125" style="2"/>
+    <col min="3" max="3" width="27.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="18.53125" style="2"/>
     <col min="9" max="9" width="39.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.5546875" style="2"/>
+    <col min="10" max="16384" width="18.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1310,7 +1326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1356,7 +1372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1379,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1402,7 +1418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1451,7 +1467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +1513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1523,7 +1539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1546,7 +1562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1566,7 +1582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1586,7 +1602,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1609,7 +1625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1629,7 +1645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
@@ -1649,7 +1665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -1675,7 +1691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1721,7 +1737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="2" t="s">
         <v>73</v>
       </c>
@@ -1764,7 +1780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1790,7 +1806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
@@ -1810,7 +1826,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="2" t="s">
         <v>77</v>
       </c>
@@ -1830,7 +1846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
@@ -1856,7 +1872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="2" t="s">
         <v>85</v>
       </c>
@@ -1876,7 +1892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" s="2" t="s">
         <v>86</v>
       </c>
@@ -1896,7 +1912,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -1922,7 +1938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="2" t="s">
         <v>89</v>
       </c>
@@ -1942,7 +1958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
@@ -1962,7 +1978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
@@ -1991,7 +2007,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="2" t="s">
         <v>100</v>
       </c>
@@ -2014,7 +2030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" s="2" t="s">
         <v>101</v>
       </c>
@@ -2037,7 +2053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="2" t="s">
         <v>102</v>
       </c>
@@ -2060,7 +2076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -2083,7 +2099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
@@ -2106,7 +2122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -2132,7 +2148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" s="2" t="s">
         <v>111</v>
       </c>
@@ -2152,7 +2168,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2" t="s">
         <v>112</v>
       </c>
@@ -2172,7 +2188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C46" s="2" t="s">
         <v>113</v>
       </c>
@@ -2192,7 +2208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
@@ -2218,7 +2234,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" s="2" t="s">
         <v>121</v>
       </c>
@@ -2238,7 +2254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="2" t="s">
         <v>122</v>
       </c>
@@ -2258,7 +2274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="2" t="s">
         <v>123</v>
       </c>
@@ -2278,7 +2294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C51" s="2" t="s">
         <v>124</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="2" t="s">
         <v>125</v>
       </c>
@@ -2324,7 +2340,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" s="2" t="s">
         <v>126</v>
       </c>
@@ -2347,7 +2363,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="2" t="s">
         <v>127</v>
       </c>
@@ -2365,6 +2381,20 @@
       </c>
       <c r="H54" s="2" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
